--- a/設計書/基本設計/DB/app_user.xlsx
+++ b/設計書/基本設計/DB/app_user.xlsx
@@ -167,7 +167,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>varchar(255)</t>
+    <t>varchar(100)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="3">
         <v>1</v>
       </c>
